--- a/output/cluster.json/dbmanager.xlsx
+++ b/output/cluster.json/dbmanager.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E638"/>
+  <dimension ref="A1:E770"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17642,25 +17642,3589 @@
     <row customHeight="1" ht="15" r="638">
       <c r="A638" t="inlineStr">
         <is>
+          <t>2024-12-02 14:39:45.691392</t>
+        </is>
+      </c>
+      <c r="B638" t="inlineStr">
+        <is>
+          <t>debug</t>
+        </is>
+      </c>
+      <c r="C638" t="inlineStr">
+        <is>
+          <t>Etcd</t>
+        </is>
+      </c>
+      <c r="D638" t="inlineStr">
+        <is>
+          <t>KeepAliveOnce key: 8043077/ENGINE/DB/674d208ddb9f7fa171078d40, leaseID: 7587883016994627332</t>
+        </is>
+      </c>
+      <c r="E638" t="inlineStr">
+        <is>
+          <t>etcdregistry.go:367</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="639">
+      <c r="A639" t="inlineStr">
+        <is>
+          <t>2024-12-02 14:40:09.704528</t>
+        </is>
+      </c>
+      <c r="B639" t="inlineStr">
+        <is>
+          <t>debug</t>
+        </is>
+      </c>
+      <c r="C639" t="inlineStr">
+        <is>
+          <t>Etcd</t>
+        </is>
+      </c>
+      <c r="D639" t="inlineStr">
+        <is>
+          <t>KeepAliveOnce key: 8043077/ENGINE/DB/674d208ddb9f7fa171078d40, leaseID: 7587883016994627332</t>
+        </is>
+      </c>
+      <c r="E639" t="inlineStr">
+        <is>
+          <t>etcdregistry.go:367</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="640">
+      <c r="A640" t="inlineStr">
+        <is>
+          <t>2024-12-02 14:40:33.706807</t>
+        </is>
+      </c>
+      <c r="B640" t="inlineStr">
+        <is>
+          <t>debug</t>
+        </is>
+      </c>
+      <c r="C640" t="inlineStr">
+        <is>
+          <t>Etcd</t>
+        </is>
+      </c>
+      <c r="D640" t="inlineStr">
+        <is>
+          <t>KeepAliveOnce key: 8043077/ENGINE/DB/674d208ddb9f7fa171078d40, leaseID: 7587883016994627332</t>
+        </is>
+      </c>
+      <c r="E640" t="inlineStr">
+        <is>
+          <t>etcdregistry.go:367</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="641">
+      <c r="A641" t="inlineStr">
+        <is>
+          <t>2024-12-02 14:40:57.711376</t>
+        </is>
+      </c>
+      <c r="B641" t="inlineStr">
+        <is>
+          <t>debug</t>
+        </is>
+      </c>
+      <c r="C641" t="inlineStr">
+        <is>
+          <t>Etcd</t>
+        </is>
+      </c>
+      <c r="D641" t="inlineStr">
+        <is>
+          <t>KeepAliveOnce key: 8043077/ENGINE/DB/674d208ddb9f7fa171078d40, leaseID: 7587883016994627332</t>
+        </is>
+      </c>
+      <c r="E641" t="inlineStr">
+        <is>
+          <t>etcdregistry.go:367</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="642">
+      <c r="A642" t="inlineStr">
+        <is>
+          <t>2024-12-02 14:41:21.717609</t>
+        </is>
+      </c>
+      <c r="B642" t="inlineStr">
+        <is>
+          <t>debug</t>
+        </is>
+      </c>
+      <c r="C642" t="inlineStr">
+        <is>
+          <t>Etcd</t>
+        </is>
+      </c>
+      <c r="D642" t="inlineStr">
+        <is>
+          <t>KeepAliveOnce key: 8043077/ENGINE/DB/674d208ddb9f7fa171078d40, leaseID: 7587883016994627332</t>
+        </is>
+      </c>
+      <c r="E642" t="inlineStr">
+        <is>
+          <t>etcdregistry.go:367</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="643">
+      <c r="A643" t="inlineStr">
+        <is>
+          <t>2024-12-02 14:41:45.724318</t>
+        </is>
+      </c>
+      <c r="B643" t="inlineStr">
+        <is>
+          <t>debug</t>
+        </is>
+      </c>
+      <c r="C643" t="inlineStr">
+        <is>
+          <t>Etcd</t>
+        </is>
+      </c>
+      <c r="D643" t="inlineStr">
+        <is>
+          <t>KeepAliveOnce key: 8043077/ENGINE/DB/674d208ddb9f7fa171078d40, leaseID: 7587883016994627332</t>
+        </is>
+      </c>
+      <c r="E643" t="inlineStr">
+        <is>
+          <t>etcdregistry.go:367</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="644">
+      <c r="A644" t="inlineStr">
+        <is>
+          <t>2024-12-02 14:42:09.726493</t>
+        </is>
+      </c>
+      <c r="B644" t="inlineStr">
+        <is>
+          <t>debug</t>
+        </is>
+      </c>
+      <c r="C644" t="inlineStr">
+        <is>
+          <t>Etcd</t>
+        </is>
+      </c>
+      <c r="D644" t="inlineStr">
+        <is>
+          <t>KeepAliveOnce key: 8043077/ENGINE/DB/674d208ddb9f7fa171078d40, leaseID: 7587883016994627332</t>
+        </is>
+      </c>
+      <c r="E644" t="inlineStr">
+        <is>
+          <t>etcdregistry.go:367</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="645">
+      <c r="A645" t="inlineStr">
+        <is>
+          <t>2024-12-02 14:42:16.722018</t>
+        </is>
+      </c>
+      <c r="B645" t="inlineStr">
+        <is>
+          <t>debug</t>
+        </is>
+      </c>
+      <c r="C645" t="inlineStr">
+        <is>
+          <t>DBManager</t>
+        </is>
+      </c>
+      <c r="D645" t="inlineStr">
+        <is>
+          <t>UpdateDoc Succeed: MatchedCount = 1, ModifiedCount = 1, UpsertedCount = 0</t>
+        </is>
+      </c>
+      <c r="E645" t="inlineStr">
+        <is>
+          <t>CmdDBUpdateDoc.go:145</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="646">
+      <c r="A646" t="inlineStr">
+        <is>
+          <t>2024-12-02 14:42:33.738499</t>
+        </is>
+      </c>
+      <c r="B646" t="inlineStr">
+        <is>
+          <t>debug</t>
+        </is>
+      </c>
+      <c r="C646" t="inlineStr">
+        <is>
+          <t>Etcd</t>
+        </is>
+      </c>
+      <c r="D646" t="inlineStr">
+        <is>
+          <t>KeepAliveOnce key: 8043077/ENGINE/DB/674d208ddb9f7fa171078d40, leaseID: 7587883016994627332</t>
+        </is>
+      </c>
+      <c r="E646" t="inlineStr">
+        <is>
+          <t>etcdregistry.go:367</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="647">
+      <c r="A647" t="inlineStr">
+        <is>
+          <t>2024-12-02 14:42:57.754733</t>
+        </is>
+      </c>
+      <c r="B647" t="inlineStr">
+        <is>
+          <t>debug</t>
+        </is>
+      </c>
+      <c r="C647" t="inlineStr">
+        <is>
+          <t>Etcd</t>
+        </is>
+      </c>
+      <c r="D647" t="inlineStr">
+        <is>
+          <t>KeepAliveOnce key: 8043077/ENGINE/DB/674d208ddb9f7fa171078d40, leaseID: 7587883016994627332</t>
+        </is>
+      </c>
+      <c r="E647" t="inlineStr">
+        <is>
+          <t>etcdregistry.go:367</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="648">
+      <c r="A648" t="inlineStr">
+        <is>
+          <t>2024-12-02 14:43:21.769452</t>
+        </is>
+      </c>
+      <c r="B648" t="inlineStr">
+        <is>
+          <t>debug</t>
+        </is>
+      </c>
+      <c r="C648" t="inlineStr">
+        <is>
+          <t>Etcd</t>
+        </is>
+      </c>
+      <c r="D648" t="inlineStr">
+        <is>
+          <t>KeepAliveOnce key: 8043077/ENGINE/DB/674d208ddb9f7fa171078d40, leaseID: 7587883016994627332</t>
+        </is>
+      </c>
+      <c r="E648" t="inlineStr">
+        <is>
+          <t>etcdregistry.go:367</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="649">
+      <c r="A649" t="inlineStr">
+        <is>
+          <t>2024-12-02 14:43:45.786806</t>
+        </is>
+      </c>
+      <c r="B649" t="inlineStr">
+        <is>
+          <t>debug</t>
+        </is>
+      </c>
+      <c r="C649" t="inlineStr">
+        <is>
+          <t>Etcd</t>
+        </is>
+      </c>
+      <c r="D649" t="inlineStr">
+        <is>
+          <t>KeepAliveOnce key: 8043077/ENGINE/DB/674d208ddb9f7fa171078d40, leaseID: 7587883016994627332</t>
+        </is>
+      </c>
+      <c r="E649" t="inlineStr">
+        <is>
+          <t>etcdregistry.go:367</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="650">
+      <c r="A650" t="inlineStr">
+        <is>
+          <t>2024-12-02 14:44:09.794056</t>
+        </is>
+      </c>
+      <c r="B650" t="inlineStr">
+        <is>
+          <t>debug</t>
+        </is>
+      </c>
+      <c r="C650" t="inlineStr">
+        <is>
+          <t>Etcd</t>
+        </is>
+      </c>
+      <c r="D650" t="inlineStr">
+        <is>
+          <t>KeepAliveOnce key: 8043077/ENGINE/DB/674d208ddb9f7fa171078d40, leaseID: 7587883016994627332</t>
+        </is>
+      </c>
+      <c r="E650" t="inlineStr">
+        <is>
+          <t>etcdregistry.go:367</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="651">
+      <c r="A651" t="inlineStr">
+        <is>
+          <t>2024-12-02 14:44:33.802092</t>
+        </is>
+      </c>
+      <c r="B651" t="inlineStr">
+        <is>
+          <t>debug</t>
+        </is>
+      </c>
+      <c r="C651" t="inlineStr">
+        <is>
+          <t>Etcd</t>
+        </is>
+      </c>
+      <c r="D651" t="inlineStr">
+        <is>
+          <t>KeepAliveOnce key: 8043077/ENGINE/DB/674d208ddb9f7fa171078d40, leaseID: 7587883016994627332</t>
+        </is>
+      </c>
+      <c r="E651" t="inlineStr">
+        <is>
+          <t>etcdregistry.go:367</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="652">
+      <c r="A652" t="inlineStr">
+        <is>
+          <t>2024-12-02 14:44:57.807982</t>
+        </is>
+      </c>
+      <c r="B652" t="inlineStr">
+        <is>
+          <t>debug</t>
+        </is>
+      </c>
+      <c r="C652" t="inlineStr">
+        <is>
+          <t>Etcd</t>
+        </is>
+      </c>
+      <c r="D652" t="inlineStr">
+        <is>
+          <t>KeepAliveOnce key: 8043077/ENGINE/DB/674d208ddb9f7fa171078d40, leaseID: 7587883016994627332</t>
+        </is>
+      </c>
+      <c r="E652" t="inlineStr">
+        <is>
+          <t>etcdregistry.go:367</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="653">
+      <c r="A653" t="inlineStr">
+        <is>
+          <t>2024-12-02 14:45:21.811848</t>
+        </is>
+      </c>
+      <c r="B653" t="inlineStr">
+        <is>
+          <t>debug</t>
+        </is>
+      </c>
+      <c r="C653" t="inlineStr">
+        <is>
+          <t>Etcd</t>
+        </is>
+      </c>
+      <c r="D653" t="inlineStr">
+        <is>
+          <t>KeepAliveOnce key: 8043077/ENGINE/DB/674d208ddb9f7fa171078d40, leaseID: 7587883016994627332</t>
+        </is>
+      </c>
+      <c r="E653" t="inlineStr">
+        <is>
+          <t>etcdregistry.go:367</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="654">
+      <c r="A654" t="inlineStr">
+        <is>
+          <t>2024-12-02 14:45:45.825793</t>
+        </is>
+      </c>
+      <c r="B654" t="inlineStr">
+        <is>
+          <t>debug</t>
+        </is>
+      </c>
+      <c r="C654" t="inlineStr">
+        <is>
+          <t>Etcd</t>
+        </is>
+      </c>
+      <c r="D654" t="inlineStr">
+        <is>
+          <t>KeepAliveOnce key: 8043077/ENGINE/DB/674d208ddb9f7fa171078d40, leaseID: 7587883016994627332</t>
+        </is>
+      </c>
+      <c r="E654" t="inlineStr">
+        <is>
+          <t>etcdregistry.go:367</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="655">
+      <c r="A655" t="inlineStr">
+        <is>
+          <t>2024-12-02 14:46:09.834191</t>
+        </is>
+      </c>
+      <c r="B655" t="inlineStr">
+        <is>
+          <t>debug</t>
+        </is>
+      </c>
+      <c r="C655" t="inlineStr">
+        <is>
+          <t>Etcd</t>
+        </is>
+      </c>
+      <c r="D655" t="inlineStr">
+        <is>
+          <t>KeepAliveOnce key: 8043077/ENGINE/DB/674d208ddb9f7fa171078d40, leaseID: 7587883016994627332</t>
+        </is>
+      </c>
+      <c r="E655" t="inlineStr">
+        <is>
+          <t>etcdregistry.go:367</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="656">
+      <c r="A656" t="inlineStr">
+        <is>
+          <t>2024-12-02 14:46:33.844636</t>
+        </is>
+      </c>
+      <c r="B656" t="inlineStr">
+        <is>
+          <t>debug</t>
+        </is>
+      </c>
+      <c r="C656" t="inlineStr">
+        <is>
+          <t>Etcd</t>
+        </is>
+      </c>
+      <c r="D656" t="inlineStr">
+        <is>
+          <t>KeepAliveOnce key: 8043077/ENGINE/DB/674d208ddb9f7fa171078d40, leaseID: 7587883016994627332</t>
+        </is>
+      </c>
+      <c r="E656" t="inlineStr">
+        <is>
+          <t>etcdregistry.go:367</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="657">
+      <c r="A657" t="inlineStr">
+        <is>
+          <t>2024-12-02 14:46:57.857449</t>
+        </is>
+      </c>
+      <c r="B657" t="inlineStr">
+        <is>
+          <t>debug</t>
+        </is>
+      </c>
+      <c r="C657" t="inlineStr">
+        <is>
+          <t>Etcd</t>
+        </is>
+      </c>
+      <c r="D657" t="inlineStr">
+        <is>
+          <t>KeepAliveOnce key: 8043077/ENGINE/DB/674d208ddb9f7fa171078d40, leaseID: 7587883016994627332</t>
+        </is>
+      </c>
+      <c r="E657" t="inlineStr">
+        <is>
+          <t>etcdregistry.go:367</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="658">
+      <c r="A658" t="inlineStr">
+        <is>
+          <t>2024-12-02 14:47:16.715336</t>
+        </is>
+      </c>
+      <c r="B658" t="inlineStr">
+        <is>
+          <t>debug</t>
+        </is>
+      </c>
+      <c r="C658" t="inlineStr">
+        <is>
+          <t>DBManager</t>
+        </is>
+      </c>
+      <c r="D658" t="inlineStr">
+        <is>
+          <t>UpdateDoc Succeed: MatchedCount = 1, ModifiedCount = 1, UpsertedCount = 0</t>
+        </is>
+      </c>
+      <c r="E658" t="inlineStr">
+        <is>
+          <t>CmdDBUpdateDoc.go:145</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="659">
+      <c r="A659" t="inlineStr">
+        <is>
+          <t>2024-12-02 14:47:21.861560</t>
+        </is>
+      </c>
+      <c r="B659" t="inlineStr">
+        <is>
+          <t>debug</t>
+        </is>
+      </c>
+      <c r="C659" t="inlineStr">
+        <is>
+          <t>Etcd</t>
+        </is>
+      </c>
+      <c r="D659" t="inlineStr">
+        <is>
+          <t>KeepAliveOnce key: 8043077/ENGINE/DB/674d208ddb9f7fa171078d40, leaseID: 7587883016994627332</t>
+        </is>
+      </c>
+      <c r="E659" t="inlineStr">
+        <is>
+          <t>etcdregistry.go:367</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="660">
+      <c r="A660" t="inlineStr">
+        <is>
+          <t>2024-12-02 14:47:45.863508</t>
+        </is>
+      </c>
+      <c r="B660" t="inlineStr">
+        <is>
+          <t>debug</t>
+        </is>
+      </c>
+      <c r="C660" t="inlineStr">
+        <is>
+          <t>Etcd</t>
+        </is>
+      </c>
+      <c r="D660" t="inlineStr">
+        <is>
+          <t>KeepAliveOnce key: 8043077/ENGINE/DB/674d208ddb9f7fa171078d40, leaseID: 7587883016994627332</t>
+        </is>
+      </c>
+      <c r="E660" t="inlineStr">
+        <is>
+          <t>etcdregistry.go:367</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="661">
+      <c r="A661" t="inlineStr">
+        <is>
+          <t>2024-12-02 14:48:09.872810</t>
+        </is>
+      </c>
+      <c r="B661" t="inlineStr">
+        <is>
+          <t>debug</t>
+        </is>
+      </c>
+      <c r="C661" t="inlineStr">
+        <is>
+          <t>Etcd</t>
+        </is>
+      </c>
+      <c r="D661" t="inlineStr">
+        <is>
+          <t>KeepAliveOnce key: 8043077/ENGINE/DB/674d208ddb9f7fa171078d40, leaseID: 7587883016994627332</t>
+        </is>
+      </c>
+      <c r="E661" t="inlineStr">
+        <is>
+          <t>etcdregistry.go:367</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="662">
+      <c r="A662" t="inlineStr">
+        <is>
+          <t>2024-12-02 14:48:33.887752</t>
+        </is>
+      </c>
+      <c r="B662" t="inlineStr">
+        <is>
+          <t>debug</t>
+        </is>
+      </c>
+      <c r="C662" t="inlineStr">
+        <is>
+          <t>Etcd</t>
+        </is>
+      </c>
+      <c r="D662" t="inlineStr">
+        <is>
+          <t>KeepAliveOnce key: 8043077/ENGINE/DB/674d208ddb9f7fa171078d40, leaseID: 7587883016994627332</t>
+        </is>
+      </c>
+      <c r="E662" t="inlineStr">
+        <is>
+          <t>etcdregistry.go:367</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="663">
+      <c r="A663" t="inlineStr">
+        <is>
+          <t>2024-12-02 14:48:57.897600</t>
+        </is>
+      </c>
+      <c r="B663" t="inlineStr">
+        <is>
+          <t>debug</t>
+        </is>
+      </c>
+      <c r="C663" t="inlineStr">
+        <is>
+          <t>Etcd</t>
+        </is>
+      </c>
+      <c r="D663" t="inlineStr">
+        <is>
+          <t>KeepAliveOnce key: 8043077/ENGINE/DB/674d208ddb9f7fa171078d40, leaseID: 7587883016994627332</t>
+        </is>
+      </c>
+      <c r="E663" t="inlineStr">
+        <is>
+          <t>etcdregistry.go:367</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="664">
+      <c r="A664" t="inlineStr">
+        <is>
+          <t>2024-12-02 14:49:21.906459</t>
+        </is>
+      </c>
+      <c r="B664" t="inlineStr">
+        <is>
+          <t>debug</t>
+        </is>
+      </c>
+      <c r="C664" t="inlineStr">
+        <is>
+          <t>Etcd</t>
+        </is>
+      </c>
+      <c r="D664" t="inlineStr">
+        <is>
+          <t>KeepAliveOnce key: 8043077/ENGINE/DB/674d208ddb9f7fa171078d40, leaseID: 7587883016994627332</t>
+        </is>
+      </c>
+      <c r="E664" t="inlineStr">
+        <is>
+          <t>etcdregistry.go:367</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="665">
+      <c r="A665" t="inlineStr">
+        <is>
+          <t>2024-12-02 14:49:45.911054</t>
+        </is>
+      </c>
+      <c r="B665" t="inlineStr">
+        <is>
+          <t>debug</t>
+        </is>
+      </c>
+      <c r="C665" t="inlineStr">
+        <is>
+          <t>Etcd</t>
+        </is>
+      </c>
+      <c r="D665" t="inlineStr">
+        <is>
+          <t>KeepAliveOnce key: 8043077/ENGINE/DB/674d208ddb9f7fa171078d40, leaseID: 7587883016994627332</t>
+        </is>
+      </c>
+      <c r="E665" t="inlineStr">
+        <is>
+          <t>etcdregistry.go:367</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="666">
+      <c r="A666" t="inlineStr">
+        <is>
+          <t>2024-12-02 14:50:09.917994</t>
+        </is>
+      </c>
+      <c r="B666" t="inlineStr">
+        <is>
+          <t>debug</t>
+        </is>
+      </c>
+      <c r="C666" t="inlineStr">
+        <is>
+          <t>Etcd</t>
+        </is>
+      </c>
+      <c r="D666" t="inlineStr">
+        <is>
+          <t>KeepAliveOnce key: 8043077/ENGINE/DB/674d208ddb9f7fa171078d40, leaseID: 7587883016994627332</t>
+        </is>
+      </c>
+      <c r="E666" t="inlineStr">
+        <is>
+          <t>etcdregistry.go:367</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="667">
+      <c r="A667" t="inlineStr">
+        <is>
+          <t>2024-12-02 14:50:33.928977</t>
+        </is>
+      </c>
+      <c r="B667" t="inlineStr">
+        <is>
+          <t>debug</t>
+        </is>
+      </c>
+      <c r="C667" t="inlineStr">
+        <is>
+          <t>Etcd</t>
+        </is>
+      </c>
+      <c r="D667" t="inlineStr">
+        <is>
+          <t>KeepAliveOnce key: 8043077/ENGINE/DB/674d208ddb9f7fa171078d40, leaseID: 7587883016994627332</t>
+        </is>
+      </c>
+      <c r="E667" t="inlineStr">
+        <is>
+          <t>etcdregistry.go:367</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="668">
+      <c r="A668" t="inlineStr">
+        <is>
+          <t>2024-12-02 14:50:57.943856</t>
+        </is>
+      </c>
+      <c r="B668" t="inlineStr">
+        <is>
+          <t>debug</t>
+        </is>
+      </c>
+      <c r="C668" t="inlineStr">
+        <is>
+          <t>Etcd</t>
+        </is>
+      </c>
+      <c r="D668" t="inlineStr">
+        <is>
+          <t>KeepAliveOnce key: 8043077/ENGINE/DB/674d208ddb9f7fa171078d40, leaseID: 7587883016994627332</t>
+        </is>
+      </c>
+      <c r="E668" t="inlineStr">
+        <is>
+          <t>etcdregistry.go:367</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="669">
+      <c r="A669" t="inlineStr">
+        <is>
+          <t>2024-12-02 14:51:21.950052</t>
+        </is>
+      </c>
+      <c r="B669" t="inlineStr">
+        <is>
+          <t>debug</t>
+        </is>
+      </c>
+      <c r="C669" t="inlineStr">
+        <is>
+          <t>Etcd</t>
+        </is>
+      </c>
+      <c r="D669" t="inlineStr">
+        <is>
+          <t>KeepAliveOnce key: 8043077/ENGINE/DB/674d208ddb9f7fa171078d40, leaseID: 7587883016994627332</t>
+        </is>
+      </c>
+      <c r="E669" t="inlineStr">
+        <is>
+          <t>etcdregistry.go:367</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="670">
+      <c r="A670" t="inlineStr">
+        <is>
+          <t>2024-12-02 14:51:45.964163</t>
+        </is>
+      </c>
+      <c r="B670" t="inlineStr">
+        <is>
+          <t>debug</t>
+        </is>
+      </c>
+      <c r="C670" t="inlineStr">
+        <is>
+          <t>Etcd</t>
+        </is>
+      </c>
+      <c r="D670" t="inlineStr">
+        <is>
+          <t>KeepAliveOnce key: 8043077/ENGINE/DB/674d208ddb9f7fa171078d40, leaseID: 7587883016994627332</t>
+        </is>
+      </c>
+      <c r="E670" t="inlineStr">
+        <is>
+          <t>etcdregistry.go:367</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="671">
+      <c r="A671" t="inlineStr">
+        <is>
+          <t>2024-12-02 14:52:09.971795</t>
+        </is>
+      </c>
+      <c r="B671" t="inlineStr">
+        <is>
+          <t>debug</t>
+        </is>
+      </c>
+      <c r="C671" t="inlineStr">
+        <is>
+          <t>Etcd</t>
+        </is>
+      </c>
+      <c r="D671" t="inlineStr">
+        <is>
+          <t>KeepAliveOnce key: 8043077/ENGINE/DB/674d208ddb9f7fa171078d40, leaseID: 7587883016994627332</t>
+        </is>
+      </c>
+      <c r="E671" t="inlineStr">
+        <is>
+          <t>etcdregistry.go:367</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="672">
+      <c r="A672" t="inlineStr">
+        <is>
+          <t>2024-12-02 14:52:16.726366</t>
+        </is>
+      </c>
+      <c r="B672" t="inlineStr">
+        <is>
+          <t>debug</t>
+        </is>
+      </c>
+      <c r="C672" t="inlineStr">
+        <is>
+          <t>DBManager</t>
+        </is>
+      </c>
+      <c r="D672" t="inlineStr">
+        <is>
+          <t>UpdateDoc Succeed: MatchedCount = 1, ModifiedCount = 1, UpsertedCount = 0</t>
+        </is>
+      </c>
+      <c r="E672" t="inlineStr">
+        <is>
+          <t>CmdDBUpdateDoc.go:145</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="673">
+      <c r="A673" t="inlineStr">
+        <is>
+          <t>2024-12-02 14:52:33.975967</t>
+        </is>
+      </c>
+      <c r="B673" t="inlineStr">
+        <is>
+          <t>debug</t>
+        </is>
+      </c>
+      <c r="C673" t="inlineStr">
+        <is>
+          <t>Etcd</t>
+        </is>
+      </c>
+      <c r="D673" t="inlineStr">
+        <is>
+          <t>KeepAliveOnce key: 8043077/ENGINE/DB/674d208ddb9f7fa171078d40, leaseID: 7587883016994627332</t>
+        </is>
+      </c>
+      <c r="E673" t="inlineStr">
+        <is>
+          <t>etcdregistry.go:367</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="674">
+      <c r="A674" t="inlineStr">
+        <is>
+          <t>2024-12-02 14:52:57.988272</t>
+        </is>
+      </c>
+      <c r="B674" t="inlineStr">
+        <is>
+          <t>debug</t>
+        </is>
+      </c>
+      <c r="C674" t="inlineStr">
+        <is>
+          <t>Etcd</t>
+        </is>
+      </c>
+      <c r="D674" t="inlineStr">
+        <is>
+          <t>KeepAliveOnce key: 8043077/ENGINE/DB/674d208ddb9f7fa171078d40, leaseID: 7587883016994627332</t>
+        </is>
+      </c>
+      <c r="E674" t="inlineStr">
+        <is>
+          <t>etcdregistry.go:367</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="675">
+      <c r="A675" t="inlineStr">
+        <is>
+          <t>2024-12-02 14:53:21.993078</t>
+        </is>
+      </c>
+      <c r="B675" t="inlineStr">
+        <is>
+          <t>debug</t>
+        </is>
+      </c>
+      <c r="C675" t="inlineStr">
+        <is>
+          <t>Etcd</t>
+        </is>
+      </c>
+      <c r="D675" t="inlineStr">
+        <is>
+          <t>KeepAliveOnce key: 8043077/ENGINE/DB/674d208ddb9f7fa171078d40, leaseID: 7587883016994627332</t>
+        </is>
+      </c>
+      <c r="E675" t="inlineStr">
+        <is>
+          <t>etcdregistry.go:367</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="676">
+      <c r="A676" t="inlineStr">
+        <is>
+          <t>2024-12-02 14:53:45.998862</t>
+        </is>
+      </c>
+      <c r="B676" t="inlineStr">
+        <is>
+          <t>debug</t>
+        </is>
+      </c>
+      <c r="C676" t="inlineStr">
+        <is>
+          <t>Etcd</t>
+        </is>
+      </c>
+      <c r="D676" t="inlineStr">
+        <is>
+          <t>KeepAliveOnce key: 8043077/ENGINE/DB/674d208ddb9f7fa171078d40, leaseID: 7587883016994627332</t>
+        </is>
+      </c>
+      <c r="E676" t="inlineStr">
+        <is>
+          <t>etcdregistry.go:367</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="677">
+      <c r="A677" t="inlineStr">
+        <is>
+          <t>2024-12-02 14:54:10.007868</t>
+        </is>
+      </c>
+      <c r="B677" t="inlineStr">
+        <is>
+          <t>debug</t>
+        </is>
+      </c>
+      <c r="C677" t="inlineStr">
+        <is>
+          <t>Etcd</t>
+        </is>
+      </c>
+      <c r="D677" t="inlineStr">
+        <is>
+          <t>KeepAliveOnce key: 8043077/ENGINE/DB/674d208ddb9f7fa171078d40, leaseID: 7587883016994627332</t>
+        </is>
+      </c>
+      <c r="E677" t="inlineStr">
+        <is>
+          <t>etcdregistry.go:367</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="678">
+      <c r="A678" t="inlineStr">
+        <is>
+          <t>2024-12-02 14:54:34.014829</t>
+        </is>
+      </c>
+      <c r="B678" t="inlineStr">
+        <is>
+          <t>debug</t>
+        </is>
+      </c>
+      <c r="C678" t="inlineStr">
+        <is>
+          <t>Etcd</t>
+        </is>
+      </c>
+      <c r="D678" t="inlineStr">
+        <is>
+          <t>KeepAliveOnce key: 8043077/ENGINE/DB/674d208ddb9f7fa171078d40, leaseID: 7587883016994627332</t>
+        </is>
+      </c>
+      <c r="E678" t="inlineStr">
+        <is>
+          <t>etcdregistry.go:367</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="679">
+      <c r="A679" t="inlineStr">
+        <is>
+          <t>2024-12-02 14:54:58.018275</t>
+        </is>
+      </c>
+      <c r="B679" t="inlineStr">
+        <is>
+          <t>debug</t>
+        </is>
+      </c>
+      <c r="C679" t="inlineStr">
+        <is>
+          <t>Etcd</t>
+        </is>
+      </c>
+      <c r="D679" t="inlineStr">
+        <is>
+          <t>KeepAliveOnce key: 8043077/ENGINE/DB/674d208ddb9f7fa171078d40, leaseID: 7587883016994627332</t>
+        </is>
+      </c>
+      <c r="E679" t="inlineStr">
+        <is>
+          <t>etcdregistry.go:367</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="680">
+      <c r="A680" t="inlineStr">
+        <is>
+          <t>2024-12-02 14:55:22.020393</t>
+        </is>
+      </c>
+      <c r="B680" t="inlineStr">
+        <is>
+          <t>debug</t>
+        </is>
+      </c>
+      <c r="C680" t="inlineStr">
+        <is>
+          <t>Etcd</t>
+        </is>
+      </c>
+      <c r="D680" t="inlineStr">
+        <is>
+          <t>KeepAliveOnce key: 8043077/ENGINE/DB/674d208ddb9f7fa171078d40, leaseID: 7587883016994627332</t>
+        </is>
+      </c>
+      <c r="E680" t="inlineStr">
+        <is>
+          <t>etcdregistry.go:367</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="681">
+      <c r="A681" t="inlineStr">
+        <is>
+          <t>2024-12-02 14:55:46.020809</t>
+        </is>
+      </c>
+      <c r="B681" t="inlineStr">
+        <is>
+          <t>debug</t>
+        </is>
+      </c>
+      <c r="C681" t="inlineStr">
+        <is>
+          <t>Etcd</t>
+        </is>
+      </c>
+      <c r="D681" t="inlineStr">
+        <is>
+          <t>KeepAliveOnce key: 8043077/ENGINE/DB/674d208ddb9f7fa171078d40, leaseID: 7587883016994627332</t>
+        </is>
+      </c>
+      <c r="E681" t="inlineStr">
+        <is>
+          <t>etcdregistry.go:367</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="682">
+      <c r="A682" t="inlineStr">
+        <is>
+          <t>2024-12-02 14:56:10.032523</t>
+        </is>
+      </c>
+      <c r="B682" t="inlineStr">
+        <is>
+          <t>debug</t>
+        </is>
+      </c>
+      <c r="C682" t="inlineStr">
+        <is>
+          <t>Etcd</t>
+        </is>
+      </c>
+      <c r="D682" t="inlineStr">
+        <is>
+          <t>KeepAliveOnce key: 8043077/ENGINE/DB/674d208ddb9f7fa171078d40, leaseID: 7587883016994627332</t>
+        </is>
+      </c>
+      <c r="E682" t="inlineStr">
+        <is>
+          <t>etcdregistry.go:367</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="683">
+      <c r="A683" t="inlineStr">
+        <is>
+          <t>2024-12-02 14:56:34.032653</t>
+        </is>
+      </c>
+      <c r="B683" t="inlineStr">
+        <is>
+          <t>debug</t>
+        </is>
+      </c>
+      <c r="C683" t="inlineStr">
+        <is>
+          <t>Etcd</t>
+        </is>
+      </c>
+      <c r="D683" t="inlineStr">
+        <is>
+          <t>KeepAliveOnce key: 8043077/ENGINE/DB/674d208ddb9f7fa171078d40, leaseID: 7587883016994627332</t>
+        </is>
+      </c>
+      <c r="E683" t="inlineStr">
+        <is>
+          <t>etcdregistry.go:367</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="684">
+      <c r="A684" t="inlineStr">
+        <is>
+          <t>2024-12-02 14:56:58.040075</t>
+        </is>
+      </c>
+      <c r="B684" t="inlineStr">
+        <is>
+          <t>debug</t>
+        </is>
+      </c>
+      <c r="C684" t="inlineStr">
+        <is>
+          <t>Etcd</t>
+        </is>
+      </c>
+      <c r="D684" t="inlineStr">
+        <is>
+          <t>KeepAliveOnce key: 8043077/ENGINE/DB/674d208ddb9f7fa171078d40, leaseID: 7587883016994627332</t>
+        </is>
+      </c>
+      <c r="E684" t="inlineStr">
+        <is>
+          <t>etcdregistry.go:367</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="685">
+      <c r="A685" t="inlineStr">
+        <is>
+          <t>2024-12-02 14:57:16.765619</t>
+        </is>
+      </c>
+      <c r="B685" t="inlineStr">
+        <is>
+          <t>debug</t>
+        </is>
+      </c>
+      <c r="C685" t="inlineStr">
+        <is>
+          <t>DBManager</t>
+        </is>
+      </c>
+      <c r="D685" t="inlineStr">
+        <is>
+          <t>UpdateDoc Succeed: MatchedCount = 1, ModifiedCount = 1, UpsertedCount = 0</t>
+        </is>
+      </c>
+      <c r="E685" t="inlineStr">
+        <is>
+          <t>CmdDBUpdateDoc.go:145</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="686">
+      <c r="A686" t="inlineStr">
+        <is>
+          <t>2024-12-02 14:57:22.046363</t>
+        </is>
+      </c>
+      <c r="B686" t="inlineStr">
+        <is>
+          <t>debug</t>
+        </is>
+      </c>
+      <c r="C686" t="inlineStr">
+        <is>
+          <t>Etcd</t>
+        </is>
+      </c>
+      <c r="D686" t="inlineStr">
+        <is>
+          <t>KeepAliveOnce key: 8043077/ENGINE/DB/674d208ddb9f7fa171078d40, leaseID: 7587883016994627332</t>
+        </is>
+      </c>
+      <c r="E686" t="inlineStr">
+        <is>
+          <t>etcdregistry.go:367</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="687">
+      <c r="A687" t="inlineStr">
+        <is>
+          <t>2024-12-02 14:57:46.056557</t>
+        </is>
+      </c>
+      <c r="B687" t="inlineStr">
+        <is>
+          <t>debug</t>
+        </is>
+      </c>
+      <c r="C687" t="inlineStr">
+        <is>
+          <t>Etcd</t>
+        </is>
+      </c>
+      <c r="D687" t="inlineStr">
+        <is>
+          <t>KeepAliveOnce key: 8043077/ENGINE/DB/674d208ddb9f7fa171078d40, leaseID: 7587883016994627332</t>
+        </is>
+      </c>
+      <c r="E687" t="inlineStr">
+        <is>
+          <t>etcdregistry.go:367</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="688">
+      <c r="A688" t="inlineStr">
+        <is>
+          <t>2024-12-02 14:58:10.065566</t>
+        </is>
+      </c>
+      <c r="B688" t="inlineStr">
+        <is>
+          <t>debug</t>
+        </is>
+      </c>
+      <c r="C688" t="inlineStr">
+        <is>
+          <t>Etcd</t>
+        </is>
+      </c>
+      <c r="D688" t="inlineStr">
+        <is>
+          <t>KeepAliveOnce key: 8043077/ENGINE/DB/674d208ddb9f7fa171078d40, leaseID: 7587883016994627332</t>
+        </is>
+      </c>
+      <c r="E688" t="inlineStr">
+        <is>
+          <t>etcdregistry.go:367</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="689">
+      <c r="A689" t="inlineStr">
+        <is>
+          <t>2024-12-02 14:58:34.068035</t>
+        </is>
+      </c>
+      <c r="B689" t="inlineStr">
+        <is>
+          <t>debug</t>
+        </is>
+      </c>
+      <c r="C689" t="inlineStr">
+        <is>
+          <t>Etcd</t>
+        </is>
+      </c>
+      <c r="D689" t="inlineStr">
+        <is>
+          <t>KeepAliveOnce key: 8043077/ENGINE/DB/674d208ddb9f7fa171078d40, leaseID: 7587883016994627332</t>
+        </is>
+      </c>
+      <c r="E689" t="inlineStr">
+        <is>
+          <t>etcdregistry.go:367</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="690">
+      <c r="A690" t="inlineStr">
+        <is>
+          <t>2024-12-02 14:58:58.076775</t>
+        </is>
+      </c>
+      <c r="B690" t="inlineStr">
+        <is>
+          <t>debug</t>
+        </is>
+      </c>
+      <c r="C690" t="inlineStr">
+        <is>
+          <t>Etcd</t>
+        </is>
+      </c>
+      <c r="D690" t="inlineStr">
+        <is>
+          <t>KeepAliveOnce key: 8043077/ENGINE/DB/674d208ddb9f7fa171078d40, leaseID: 7587883016994627332</t>
+        </is>
+      </c>
+      <c r="E690" t="inlineStr">
+        <is>
+          <t>etcdregistry.go:367</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="691">
+      <c r="A691" t="inlineStr">
+        <is>
+          <t>2024-12-02 14:59:22.092175</t>
+        </is>
+      </c>
+      <c r="B691" t="inlineStr">
+        <is>
+          <t>debug</t>
+        </is>
+      </c>
+      <c r="C691" t="inlineStr">
+        <is>
+          <t>Etcd</t>
+        </is>
+      </c>
+      <c r="D691" t="inlineStr">
+        <is>
+          <t>KeepAliveOnce key: 8043077/ENGINE/DB/674d208ddb9f7fa171078d40, leaseID: 7587883016994627332</t>
+        </is>
+      </c>
+      <c r="E691" t="inlineStr">
+        <is>
+          <t>etcdregistry.go:367</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="692">
+      <c r="A692" t="inlineStr">
+        <is>
+          <t>2024-12-02 14:59:46.105615</t>
+        </is>
+      </c>
+      <c r="B692" t="inlineStr">
+        <is>
+          <t>debug</t>
+        </is>
+      </c>
+      <c r="C692" t="inlineStr">
+        <is>
+          <t>Etcd</t>
+        </is>
+      </c>
+      <c r="D692" t="inlineStr">
+        <is>
+          <t>KeepAliveOnce key: 8043077/ENGINE/DB/674d208ddb9f7fa171078d40, leaseID: 7587883016994627332</t>
+        </is>
+      </c>
+      <c r="E692" t="inlineStr">
+        <is>
+          <t>etcdregistry.go:367</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="693">
+      <c r="A693" t="inlineStr">
+        <is>
+          <t>2024-12-02 15:00:10.115983</t>
+        </is>
+      </c>
+      <c r="B693" t="inlineStr">
+        <is>
+          <t>debug</t>
+        </is>
+      </c>
+      <c r="C693" t="inlineStr">
+        <is>
+          <t>Etcd</t>
+        </is>
+      </c>
+      <c r="D693" t="inlineStr">
+        <is>
+          <t>KeepAliveOnce key: 8043077/ENGINE/DB/674d208ddb9f7fa171078d40, leaseID: 7587883016994627332</t>
+        </is>
+      </c>
+      <c r="E693" t="inlineStr">
+        <is>
+          <t>etcdregistry.go:367</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="694">
+      <c r="A694" t="inlineStr">
+        <is>
+          <t>2024-12-02 15:00:34.123979</t>
+        </is>
+      </c>
+      <c r="B694" t="inlineStr">
+        <is>
+          <t>debug</t>
+        </is>
+      </c>
+      <c r="C694" t="inlineStr">
+        <is>
+          <t>Etcd</t>
+        </is>
+      </c>
+      <c r="D694" t="inlineStr">
+        <is>
+          <t>KeepAliveOnce key: 8043077/ENGINE/DB/674d208ddb9f7fa171078d40, leaseID: 7587883016994627332</t>
+        </is>
+      </c>
+      <c r="E694" t="inlineStr">
+        <is>
+          <t>etcdregistry.go:367</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="695">
+      <c r="A695" t="inlineStr">
+        <is>
+          <t>2024-12-02 15:00:58.131314</t>
+        </is>
+      </c>
+      <c r="B695" t="inlineStr">
+        <is>
+          <t>debug</t>
+        </is>
+      </c>
+      <c r="C695" t="inlineStr">
+        <is>
+          <t>Etcd</t>
+        </is>
+      </c>
+      <c r="D695" t="inlineStr">
+        <is>
+          <t>KeepAliveOnce key: 8043077/ENGINE/DB/674d208ddb9f7fa171078d40, leaseID: 7587883016994627332</t>
+        </is>
+      </c>
+      <c r="E695" t="inlineStr">
+        <is>
+          <t>etcdregistry.go:367</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="696">
+      <c r="A696" t="inlineStr">
+        <is>
+          <t>2024-12-02 15:01:22.145193</t>
+        </is>
+      </c>
+      <c r="B696" t="inlineStr">
+        <is>
+          <t>debug</t>
+        </is>
+      </c>
+      <c r="C696" t="inlineStr">
+        <is>
+          <t>Etcd</t>
+        </is>
+      </c>
+      <c r="D696" t="inlineStr">
+        <is>
+          <t>KeepAliveOnce key: 8043077/ENGINE/DB/674d208ddb9f7fa171078d40, leaseID: 7587883016994627332</t>
+        </is>
+      </c>
+      <c r="E696" t="inlineStr">
+        <is>
+          <t>etcdregistry.go:367</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="697">
+      <c r="A697" t="inlineStr">
+        <is>
+          <t>2024-12-02 15:01:46.154834</t>
+        </is>
+      </c>
+      <c r="B697" t="inlineStr">
+        <is>
+          <t>debug</t>
+        </is>
+      </c>
+      <c r="C697" t="inlineStr">
+        <is>
+          <t>Etcd</t>
+        </is>
+      </c>
+      <c r="D697" t="inlineStr">
+        <is>
+          <t>KeepAliveOnce key: 8043077/ENGINE/DB/674d208ddb9f7fa171078d40, leaseID: 7587883016994627332</t>
+        </is>
+      </c>
+      <c r="E697" t="inlineStr">
+        <is>
+          <t>etcdregistry.go:367</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="698">
+      <c r="A698" t="inlineStr">
+        <is>
+          <t>2024-12-02 15:02:10.170131</t>
+        </is>
+      </c>
+      <c r="B698" t="inlineStr">
+        <is>
+          <t>debug</t>
+        </is>
+      </c>
+      <c r="C698" t="inlineStr">
+        <is>
+          <t>Etcd</t>
+        </is>
+      </c>
+      <c r="D698" t="inlineStr">
+        <is>
+          <t>KeepAliveOnce key: 8043077/ENGINE/DB/674d208ddb9f7fa171078d40, leaseID: 7587883016994627332</t>
+        </is>
+      </c>
+      <c r="E698" t="inlineStr">
+        <is>
+          <t>etcdregistry.go:367</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="699">
+      <c r="A699" t="inlineStr">
+        <is>
+          <t>2024-12-02 15:02:16.778857</t>
+        </is>
+      </c>
+      <c r="B699" t="inlineStr">
+        <is>
+          <t>debug</t>
+        </is>
+      </c>
+      <c r="C699" t="inlineStr">
+        <is>
+          <t>DBManager</t>
+        </is>
+      </c>
+      <c r="D699" t="inlineStr">
+        <is>
+          <t>UpdateDoc Succeed: MatchedCount = 1, ModifiedCount = 1, UpsertedCount = 0</t>
+        </is>
+      </c>
+      <c r="E699" t="inlineStr">
+        <is>
+          <t>CmdDBUpdateDoc.go:145</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="700">
+      <c r="A700" t="inlineStr">
+        <is>
+          <t>2024-12-02 15:02:34.177688</t>
+        </is>
+      </c>
+      <c r="B700" t="inlineStr">
+        <is>
+          <t>debug</t>
+        </is>
+      </c>
+      <c r="C700" t="inlineStr">
+        <is>
+          <t>Etcd</t>
+        </is>
+      </c>
+      <c r="D700" t="inlineStr">
+        <is>
+          <t>KeepAliveOnce key: 8043077/ENGINE/DB/674d208ddb9f7fa171078d40, leaseID: 7587883016994627332</t>
+        </is>
+      </c>
+      <c r="E700" t="inlineStr">
+        <is>
+          <t>etcdregistry.go:367</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="701">
+      <c r="A701" t="inlineStr">
+        <is>
+          <t>2024-12-02 15:02:58.192214</t>
+        </is>
+      </c>
+      <c r="B701" t="inlineStr">
+        <is>
+          <t>debug</t>
+        </is>
+      </c>
+      <c r="C701" t="inlineStr">
+        <is>
+          <t>Etcd</t>
+        </is>
+      </c>
+      <c r="D701" t="inlineStr">
+        <is>
+          <t>KeepAliveOnce key: 8043077/ENGINE/DB/674d208ddb9f7fa171078d40, leaseID: 7587883016994627332</t>
+        </is>
+      </c>
+      <c r="E701" t="inlineStr">
+        <is>
+          <t>etcdregistry.go:367</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="702">
+      <c r="A702" t="inlineStr">
+        <is>
+          <t>2024-12-02 15:03:22.195423</t>
+        </is>
+      </c>
+      <c r="B702" t="inlineStr">
+        <is>
+          <t>debug</t>
+        </is>
+      </c>
+      <c r="C702" t="inlineStr">
+        <is>
+          <t>Etcd</t>
+        </is>
+      </c>
+      <c r="D702" t="inlineStr">
+        <is>
+          <t>KeepAliveOnce key: 8043077/ENGINE/DB/674d208ddb9f7fa171078d40, leaseID: 7587883016994627332</t>
+        </is>
+      </c>
+      <c r="E702" t="inlineStr">
+        <is>
+          <t>etcdregistry.go:367</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="703">
+      <c r="A703" t="inlineStr">
+        <is>
+          <t>2024-12-02 15:03:46.207349</t>
+        </is>
+      </c>
+      <c r="B703" t="inlineStr">
+        <is>
+          <t>debug</t>
+        </is>
+      </c>
+      <c r="C703" t="inlineStr">
+        <is>
+          <t>Etcd</t>
+        </is>
+      </c>
+      <c r="D703" t="inlineStr">
+        <is>
+          <t>KeepAliveOnce key: 8043077/ENGINE/DB/674d208ddb9f7fa171078d40, leaseID: 7587883016994627332</t>
+        </is>
+      </c>
+      <c r="E703" t="inlineStr">
+        <is>
+          <t>etcdregistry.go:367</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="704">
+      <c r="A704" t="inlineStr">
+        <is>
+          <t>2024-12-02 15:04:10.214888</t>
+        </is>
+      </c>
+      <c r="B704" t="inlineStr">
+        <is>
+          <t>debug</t>
+        </is>
+      </c>
+      <c r="C704" t="inlineStr">
+        <is>
+          <t>Etcd</t>
+        </is>
+      </c>
+      <c r="D704" t="inlineStr">
+        <is>
+          <t>KeepAliveOnce key: 8043077/ENGINE/DB/674d208ddb9f7fa171078d40, leaseID: 7587883016994627332</t>
+        </is>
+      </c>
+      <c r="E704" t="inlineStr">
+        <is>
+          <t>etcdregistry.go:367</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="705">
+      <c r="A705" t="inlineStr">
+        <is>
+          <t>2024-12-02 15:04:34.224478</t>
+        </is>
+      </c>
+      <c r="B705" t="inlineStr">
+        <is>
+          <t>debug</t>
+        </is>
+      </c>
+      <c r="C705" t="inlineStr">
+        <is>
+          <t>Etcd</t>
+        </is>
+      </c>
+      <c r="D705" t="inlineStr">
+        <is>
+          <t>KeepAliveOnce key: 8043077/ENGINE/DB/674d208ddb9f7fa171078d40, leaseID: 7587883016994627332</t>
+        </is>
+      </c>
+      <c r="E705" t="inlineStr">
+        <is>
+          <t>etcdregistry.go:367</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="706">
+      <c r="A706" t="inlineStr">
+        <is>
+          <t>2024-12-02 15:04:58.230359</t>
+        </is>
+      </c>
+      <c r="B706" t="inlineStr">
+        <is>
+          <t>debug</t>
+        </is>
+      </c>
+      <c r="C706" t="inlineStr">
+        <is>
+          <t>Etcd</t>
+        </is>
+      </c>
+      <c r="D706" t="inlineStr">
+        <is>
+          <t>KeepAliveOnce key: 8043077/ENGINE/DB/674d208ddb9f7fa171078d40, leaseID: 7587883016994627332</t>
+        </is>
+      </c>
+      <c r="E706" t="inlineStr">
+        <is>
+          <t>etcdregistry.go:367</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="707">
+      <c r="A707" t="inlineStr">
+        <is>
+          <t>2024-12-02 15:05:22.233831</t>
+        </is>
+      </c>
+      <c r="B707" t="inlineStr">
+        <is>
+          <t>debug</t>
+        </is>
+      </c>
+      <c r="C707" t="inlineStr">
+        <is>
+          <t>Etcd</t>
+        </is>
+      </c>
+      <c r="D707" t="inlineStr">
+        <is>
+          <t>KeepAliveOnce key: 8043077/ENGINE/DB/674d208ddb9f7fa171078d40, leaseID: 7587883016994627332</t>
+        </is>
+      </c>
+      <c r="E707" t="inlineStr">
+        <is>
+          <t>etcdregistry.go:367</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="708">
+      <c r="A708" t="inlineStr">
+        <is>
+          <t>2024-12-02 15:05:46.237379</t>
+        </is>
+      </c>
+      <c r="B708" t="inlineStr">
+        <is>
+          <t>debug</t>
+        </is>
+      </c>
+      <c r="C708" t="inlineStr">
+        <is>
+          <t>Etcd</t>
+        </is>
+      </c>
+      <c r="D708" t="inlineStr">
+        <is>
+          <t>KeepAliveOnce key: 8043077/ENGINE/DB/674d208ddb9f7fa171078d40, leaseID: 7587883016994627332</t>
+        </is>
+      </c>
+      <c r="E708" t="inlineStr">
+        <is>
+          <t>etcdregistry.go:367</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="709">
+      <c r="A709" t="inlineStr">
+        <is>
+          <t>2024-12-02 15:06:10.239017</t>
+        </is>
+      </c>
+      <c r="B709" t="inlineStr">
+        <is>
+          <t>debug</t>
+        </is>
+      </c>
+      <c r="C709" t="inlineStr">
+        <is>
+          <t>Etcd</t>
+        </is>
+      </c>
+      <c r="D709" t="inlineStr">
+        <is>
+          <t>KeepAliveOnce key: 8043077/ENGINE/DB/674d208ddb9f7fa171078d40, leaseID: 7587883016994627332</t>
+        </is>
+      </c>
+      <c r="E709" t="inlineStr">
+        <is>
+          <t>etcdregistry.go:367</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="710">
+      <c r="A710" t="inlineStr">
+        <is>
+          <t>2024-12-02 15:06:34.243385</t>
+        </is>
+      </c>
+      <c r="B710" t="inlineStr">
+        <is>
+          <t>debug</t>
+        </is>
+      </c>
+      <c r="C710" t="inlineStr">
+        <is>
+          <t>Etcd</t>
+        </is>
+      </c>
+      <c r="D710" t="inlineStr">
+        <is>
+          <t>KeepAliveOnce key: 8043077/ENGINE/DB/674d208ddb9f7fa171078d40, leaseID: 7587883016994627332</t>
+        </is>
+      </c>
+      <c r="E710" t="inlineStr">
+        <is>
+          <t>etcdregistry.go:367</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="711">
+      <c r="A711" t="inlineStr">
+        <is>
+          <t>2024-12-02 15:06:58.259306</t>
+        </is>
+      </c>
+      <c r="B711" t="inlineStr">
+        <is>
+          <t>debug</t>
+        </is>
+      </c>
+      <c r="C711" t="inlineStr">
+        <is>
+          <t>Etcd</t>
+        </is>
+      </c>
+      <c r="D711" t="inlineStr">
+        <is>
+          <t>KeepAliveOnce key: 8043077/ENGINE/DB/674d208ddb9f7fa171078d40, leaseID: 7587883016994627332</t>
+        </is>
+      </c>
+      <c r="E711" t="inlineStr">
+        <is>
+          <t>etcdregistry.go:367</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="712">
+      <c r="A712" t="inlineStr">
+        <is>
+          <t>2024-12-02 15:07:16.762743</t>
+        </is>
+      </c>
+      <c r="B712" t="inlineStr">
+        <is>
+          <t>debug</t>
+        </is>
+      </c>
+      <c r="C712" t="inlineStr">
+        <is>
+          <t>DBManager</t>
+        </is>
+      </c>
+      <c r="D712" t="inlineStr">
+        <is>
+          <t>UpdateDoc Succeed: MatchedCount = 1, ModifiedCount = 1, UpsertedCount = 0</t>
+        </is>
+      </c>
+      <c r="E712" t="inlineStr">
+        <is>
+          <t>CmdDBUpdateDoc.go:145</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="713">
+      <c r="A713" t="inlineStr">
+        <is>
+          <t>2024-12-02 15:07:22.270591</t>
+        </is>
+      </c>
+      <c r="B713" t="inlineStr">
+        <is>
+          <t>debug</t>
+        </is>
+      </c>
+      <c r="C713" t="inlineStr">
+        <is>
+          <t>Etcd</t>
+        </is>
+      </c>
+      <c r="D713" t="inlineStr">
+        <is>
+          <t>KeepAliveOnce key: 8043077/ENGINE/DB/674d208ddb9f7fa171078d40, leaseID: 7587883016994627332</t>
+        </is>
+      </c>
+      <c r="E713" t="inlineStr">
+        <is>
+          <t>etcdregistry.go:367</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="714">
+      <c r="A714" t="inlineStr">
+        <is>
+          <t>2024-12-02 15:07:46.271623</t>
+        </is>
+      </c>
+      <c r="B714" t="inlineStr">
+        <is>
+          <t>debug</t>
+        </is>
+      </c>
+      <c r="C714" t="inlineStr">
+        <is>
+          <t>Etcd</t>
+        </is>
+      </c>
+      <c r="D714" t="inlineStr">
+        <is>
+          <t>KeepAliveOnce key: 8043077/ENGINE/DB/674d208ddb9f7fa171078d40, leaseID: 7587883016994627332</t>
+        </is>
+      </c>
+      <c r="E714" t="inlineStr">
+        <is>
+          <t>etcdregistry.go:367</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="715">
+      <c r="A715" t="inlineStr">
+        <is>
+          <t>2024-12-02 15:08:10.286531</t>
+        </is>
+      </c>
+      <c r="B715" t="inlineStr">
+        <is>
+          <t>debug</t>
+        </is>
+      </c>
+      <c r="C715" t="inlineStr">
+        <is>
+          <t>Etcd</t>
+        </is>
+      </c>
+      <c r="D715" t="inlineStr">
+        <is>
+          <t>KeepAliveOnce key: 8043077/ENGINE/DB/674d208ddb9f7fa171078d40, leaseID: 7587883016994627332</t>
+        </is>
+      </c>
+      <c r="E715" t="inlineStr">
+        <is>
+          <t>etcdregistry.go:367</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="716">
+      <c r="A716" t="inlineStr">
+        <is>
+          <t>2024-12-02 15:08:34.290768</t>
+        </is>
+      </c>
+      <c r="B716" t="inlineStr">
+        <is>
+          <t>debug</t>
+        </is>
+      </c>
+      <c r="C716" t="inlineStr">
+        <is>
+          <t>Etcd</t>
+        </is>
+      </c>
+      <c r="D716" t="inlineStr">
+        <is>
+          <t>KeepAliveOnce key: 8043077/ENGINE/DB/674d208ddb9f7fa171078d40, leaseID: 7587883016994627332</t>
+        </is>
+      </c>
+      <c r="E716" t="inlineStr">
+        <is>
+          <t>etcdregistry.go:367</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="717">
+      <c r="A717" t="inlineStr">
+        <is>
+          <t>2024-12-02 15:08:58.305216</t>
+        </is>
+      </c>
+      <c r="B717" t="inlineStr">
+        <is>
+          <t>debug</t>
+        </is>
+      </c>
+      <c r="C717" t="inlineStr">
+        <is>
+          <t>Etcd</t>
+        </is>
+      </c>
+      <c r="D717" t="inlineStr">
+        <is>
+          <t>KeepAliveOnce key: 8043077/ENGINE/DB/674d208ddb9f7fa171078d40, leaseID: 7587883016994627332</t>
+        </is>
+      </c>
+      <c r="E717" t="inlineStr">
+        <is>
+          <t>etcdregistry.go:367</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="718">
+      <c r="A718" t="inlineStr">
+        <is>
+          <t>2024-12-02 15:09:22.309823</t>
+        </is>
+      </c>
+      <c r="B718" t="inlineStr">
+        <is>
+          <t>debug</t>
+        </is>
+      </c>
+      <c r="C718" t="inlineStr">
+        <is>
+          <t>Etcd</t>
+        </is>
+      </c>
+      <c r="D718" t="inlineStr">
+        <is>
+          <t>KeepAliveOnce key: 8043077/ENGINE/DB/674d208ddb9f7fa171078d40, leaseID: 7587883016994627332</t>
+        </is>
+      </c>
+      <c r="E718" t="inlineStr">
+        <is>
+          <t>etcdregistry.go:367</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="719">
+      <c r="A719" t="inlineStr">
+        <is>
+          <t>2024-12-02 15:09:46.323892</t>
+        </is>
+      </c>
+      <c r="B719" t="inlineStr">
+        <is>
+          <t>debug</t>
+        </is>
+      </c>
+      <c r="C719" t="inlineStr">
+        <is>
+          <t>Etcd</t>
+        </is>
+      </c>
+      <c r="D719" t="inlineStr">
+        <is>
+          <t>KeepAliveOnce key: 8043077/ENGINE/DB/674d208ddb9f7fa171078d40, leaseID: 7587883016994627332</t>
+        </is>
+      </c>
+      <c r="E719" t="inlineStr">
+        <is>
+          <t>etcdregistry.go:367</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="720">
+      <c r="A720" t="inlineStr">
+        <is>
+          <t>2024-12-02 15:10:10.336183</t>
+        </is>
+      </c>
+      <c r="B720" t="inlineStr">
+        <is>
+          <t>debug</t>
+        </is>
+      </c>
+      <c r="C720" t="inlineStr">
+        <is>
+          <t>Etcd</t>
+        </is>
+      </c>
+      <c r="D720" t="inlineStr">
+        <is>
+          <t>KeepAliveOnce key: 8043077/ENGINE/DB/674d208ddb9f7fa171078d40, leaseID: 7587883016994627332</t>
+        </is>
+      </c>
+      <c r="E720" t="inlineStr">
+        <is>
+          <t>etcdregistry.go:367</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="721">
+      <c r="A721" t="inlineStr">
+        <is>
+          <t>2024-12-02 15:10:34.350095</t>
+        </is>
+      </c>
+      <c r="B721" t="inlineStr">
+        <is>
+          <t>debug</t>
+        </is>
+      </c>
+      <c r="C721" t="inlineStr">
+        <is>
+          <t>Etcd</t>
+        </is>
+      </c>
+      <c r="D721" t="inlineStr">
+        <is>
+          <t>KeepAliveOnce key: 8043077/ENGINE/DB/674d208ddb9f7fa171078d40, leaseID: 7587883016994627332</t>
+        </is>
+      </c>
+      <c r="E721" t="inlineStr">
+        <is>
+          <t>etcdregistry.go:367</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="722">
+      <c r="A722" t="inlineStr">
+        <is>
+          <t>2024-12-02 15:10:58.365924</t>
+        </is>
+      </c>
+      <c r="B722" t="inlineStr">
+        <is>
+          <t>debug</t>
+        </is>
+      </c>
+      <c r="C722" t="inlineStr">
+        <is>
+          <t>Etcd</t>
+        </is>
+      </c>
+      <c r="D722" t="inlineStr">
+        <is>
+          <t>KeepAliveOnce key: 8043077/ENGINE/DB/674d208ddb9f7fa171078d40, leaseID: 7587883016994627332</t>
+        </is>
+      </c>
+      <c r="E722" t="inlineStr">
+        <is>
+          <t>etcdregistry.go:367</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="723">
+      <c r="A723" t="inlineStr">
+        <is>
+          <t>2024-12-02 15:11:22.380196</t>
+        </is>
+      </c>
+      <c r="B723" t="inlineStr">
+        <is>
+          <t>debug</t>
+        </is>
+      </c>
+      <c r="C723" t="inlineStr">
+        <is>
+          <t>Etcd</t>
+        </is>
+      </c>
+      <c r="D723" t="inlineStr">
+        <is>
+          <t>KeepAliveOnce key: 8043077/ENGINE/DB/674d208ddb9f7fa171078d40, leaseID: 7587883016994627332</t>
+        </is>
+      </c>
+      <c r="E723" t="inlineStr">
+        <is>
+          <t>etcdregistry.go:367</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="724">
+      <c r="A724" t="inlineStr">
+        <is>
+          <t>2024-12-02 15:11:46.394309</t>
+        </is>
+      </c>
+      <c r="B724" t="inlineStr">
+        <is>
+          <t>debug</t>
+        </is>
+      </c>
+      <c r="C724" t="inlineStr">
+        <is>
+          <t>Etcd</t>
+        </is>
+      </c>
+      <c r="D724" t="inlineStr">
+        <is>
+          <t>KeepAliveOnce key: 8043077/ENGINE/DB/674d208ddb9f7fa171078d40, leaseID: 7587883016994627332</t>
+        </is>
+      </c>
+      <c r="E724" t="inlineStr">
+        <is>
+          <t>etcdregistry.go:367</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="725">
+      <c r="A725" t="inlineStr">
+        <is>
+          <t>2024-12-02 15:12:10.402440</t>
+        </is>
+      </c>
+      <c r="B725" t="inlineStr">
+        <is>
+          <t>debug</t>
+        </is>
+      </c>
+      <c r="C725" t="inlineStr">
+        <is>
+          <t>Etcd</t>
+        </is>
+      </c>
+      <c r="D725" t="inlineStr">
+        <is>
+          <t>KeepAliveOnce key: 8043077/ENGINE/DB/674d208ddb9f7fa171078d40, leaseID: 7587883016994627332</t>
+        </is>
+      </c>
+      <c r="E725" t="inlineStr">
+        <is>
+          <t>etcdregistry.go:367</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="726">
+      <c r="A726" t="inlineStr">
+        <is>
+          <t>2024-12-02 15:12:16.822452</t>
+        </is>
+      </c>
+      <c r="B726" t="inlineStr">
+        <is>
+          <t>debug</t>
+        </is>
+      </c>
+      <c r="C726" t="inlineStr">
+        <is>
+          <t>DBManager</t>
+        </is>
+      </c>
+      <c r="D726" t="inlineStr">
+        <is>
+          <t>UpdateDoc Succeed: MatchedCount = 1, ModifiedCount = 1, UpsertedCount = 0</t>
+        </is>
+      </c>
+      <c r="E726" t="inlineStr">
+        <is>
+          <t>CmdDBUpdateDoc.go:145</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="727">
+      <c r="A727" t="inlineStr">
+        <is>
+          <t>2024-12-02 15:12:34.411557</t>
+        </is>
+      </c>
+      <c r="B727" t="inlineStr">
+        <is>
+          <t>debug</t>
+        </is>
+      </c>
+      <c r="C727" t="inlineStr">
+        <is>
+          <t>Etcd</t>
+        </is>
+      </c>
+      <c r="D727" t="inlineStr">
+        <is>
+          <t>KeepAliveOnce key: 8043077/ENGINE/DB/674d208ddb9f7fa171078d40, leaseID: 7587883016994627332</t>
+        </is>
+      </c>
+      <c r="E727" t="inlineStr">
+        <is>
+          <t>etcdregistry.go:367</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="728">
+      <c r="A728" t="inlineStr">
+        <is>
+          <t>2024-12-02 15:12:58.419793</t>
+        </is>
+      </c>
+      <c r="B728" t="inlineStr">
+        <is>
+          <t>debug</t>
+        </is>
+      </c>
+      <c r="C728" t="inlineStr">
+        <is>
+          <t>Etcd</t>
+        </is>
+      </c>
+      <c r="D728" t="inlineStr">
+        <is>
+          <t>KeepAliveOnce key: 8043077/ENGINE/DB/674d208ddb9f7fa171078d40, leaseID: 7587883016994627332</t>
+        </is>
+      </c>
+      <c r="E728" t="inlineStr">
+        <is>
+          <t>etcdregistry.go:367</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="729">
+      <c r="A729" t="inlineStr">
+        <is>
+          <t>2024-12-02 15:13:22.425490</t>
+        </is>
+      </c>
+      <c r="B729" t="inlineStr">
+        <is>
+          <t>debug</t>
+        </is>
+      </c>
+      <c r="C729" t="inlineStr">
+        <is>
+          <t>Etcd</t>
+        </is>
+      </c>
+      <c r="D729" t="inlineStr">
+        <is>
+          <t>KeepAliveOnce key: 8043077/ENGINE/DB/674d208ddb9f7fa171078d40, leaseID: 7587883016994627332</t>
+        </is>
+      </c>
+      <c r="E729" t="inlineStr">
+        <is>
+          <t>etcdregistry.go:367</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="730">
+      <c r="A730" t="inlineStr">
+        <is>
+          <t>2024-12-02 15:13:46.438186</t>
+        </is>
+      </c>
+      <c r="B730" t="inlineStr">
+        <is>
+          <t>debug</t>
+        </is>
+      </c>
+      <c r="C730" t="inlineStr">
+        <is>
+          <t>Etcd</t>
+        </is>
+      </c>
+      <c r="D730" t="inlineStr">
+        <is>
+          <t>KeepAliveOnce key: 8043077/ENGINE/DB/674d208ddb9f7fa171078d40, leaseID: 7587883016994627332</t>
+        </is>
+      </c>
+      <c r="E730" t="inlineStr">
+        <is>
+          <t>etcdregistry.go:367</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="731">
+      <c r="A731" t="inlineStr">
+        <is>
+          <t>2024-12-02 15:14:10.450839</t>
+        </is>
+      </c>
+      <c r="B731" t="inlineStr">
+        <is>
+          <t>debug</t>
+        </is>
+      </c>
+      <c r="C731" t="inlineStr">
+        <is>
+          <t>Etcd</t>
+        </is>
+      </c>
+      <c r="D731" t="inlineStr">
+        <is>
+          <t>KeepAliveOnce key: 8043077/ENGINE/DB/674d208ddb9f7fa171078d40, leaseID: 7587883016994627332</t>
+        </is>
+      </c>
+      <c r="E731" t="inlineStr">
+        <is>
+          <t>etcdregistry.go:367</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="732">
+      <c r="A732" t="inlineStr">
+        <is>
+          <t>2024-12-02 15:14:34.456183</t>
+        </is>
+      </c>
+      <c r="B732" t="inlineStr">
+        <is>
+          <t>debug</t>
+        </is>
+      </c>
+      <c r="C732" t="inlineStr">
+        <is>
+          <t>Etcd</t>
+        </is>
+      </c>
+      <c r="D732" t="inlineStr">
+        <is>
+          <t>KeepAliveOnce key: 8043077/ENGINE/DB/674d208ddb9f7fa171078d40, leaseID: 7587883016994627332</t>
+        </is>
+      </c>
+      <c r="E732" t="inlineStr">
+        <is>
+          <t>etcdregistry.go:367</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="733">
+      <c r="A733" t="inlineStr">
+        <is>
+          <t>2024-12-02 15:14:58.464019</t>
+        </is>
+      </c>
+      <c r="B733" t="inlineStr">
+        <is>
+          <t>debug</t>
+        </is>
+      </c>
+      <c r="C733" t="inlineStr">
+        <is>
+          <t>Etcd</t>
+        </is>
+      </c>
+      <c r="D733" t="inlineStr">
+        <is>
+          <t>KeepAliveOnce key: 8043077/ENGINE/DB/674d208ddb9f7fa171078d40, leaseID: 7587883016994627332</t>
+        </is>
+      </c>
+      <c r="E733" t="inlineStr">
+        <is>
+          <t>etcdregistry.go:367</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="734">
+      <c r="A734" t="inlineStr">
+        <is>
+          <t>2024-12-02 15:15:22.465792</t>
+        </is>
+      </c>
+      <c r="B734" t="inlineStr">
+        <is>
+          <t>debug</t>
+        </is>
+      </c>
+      <c r="C734" t="inlineStr">
+        <is>
+          <t>Etcd</t>
+        </is>
+      </c>
+      <c r="D734" t="inlineStr">
+        <is>
+          <t>KeepAliveOnce key: 8043077/ENGINE/DB/674d208ddb9f7fa171078d40, leaseID: 7587883016994627332</t>
+        </is>
+      </c>
+      <c r="E734" t="inlineStr">
+        <is>
+          <t>etcdregistry.go:367</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="735">
+      <c r="A735" t="inlineStr">
+        <is>
+          <t>2024-12-02 15:15:46.469990</t>
+        </is>
+      </c>
+      <c r="B735" t="inlineStr">
+        <is>
+          <t>debug</t>
+        </is>
+      </c>
+      <c r="C735" t="inlineStr">
+        <is>
+          <t>Etcd</t>
+        </is>
+      </c>
+      <c r="D735" t="inlineStr">
+        <is>
+          <t>KeepAliveOnce key: 8043077/ENGINE/DB/674d208ddb9f7fa171078d40, leaseID: 7587883016994627332</t>
+        </is>
+      </c>
+      <c r="E735" t="inlineStr">
+        <is>
+          <t>etcdregistry.go:367</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="736">
+      <c r="A736" t="inlineStr">
+        <is>
+          <t>2024-12-02 15:16:10.478001</t>
+        </is>
+      </c>
+      <c r="B736" t="inlineStr">
+        <is>
+          <t>debug</t>
+        </is>
+      </c>
+      <c r="C736" t="inlineStr">
+        <is>
+          <t>Etcd</t>
+        </is>
+      </c>
+      <c r="D736" t="inlineStr">
+        <is>
+          <t>KeepAliveOnce key: 8043077/ENGINE/DB/674d208ddb9f7fa171078d40, leaseID: 7587883016994627332</t>
+        </is>
+      </c>
+      <c r="E736" t="inlineStr">
+        <is>
+          <t>etcdregistry.go:367</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="737">
+      <c r="A737" t="inlineStr">
+        <is>
+          <t>2024-12-02 15:16:34.484640</t>
+        </is>
+      </c>
+      <c r="B737" t="inlineStr">
+        <is>
+          <t>debug</t>
+        </is>
+      </c>
+      <c r="C737" t="inlineStr">
+        <is>
+          <t>Etcd</t>
+        </is>
+      </c>
+      <c r="D737" t="inlineStr">
+        <is>
+          <t>KeepAliveOnce key: 8043077/ENGINE/DB/674d208ddb9f7fa171078d40, leaseID: 7587883016994627332</t>
+        </is>
+      </c>
+      <c r="E737" t="inlineStr">
+        <is>
+          <t>etcdregistry.go:367</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="738">
+      <c r="A738" t="inlineStr">
+        <is>
+          <t>2024-12-02 15:16:58.488736</t>
+        </is>
+      </c>
+      <c r="B738" t="inlineStr">
+        <is>
+          <t>debug</t>
+        </is>
+      </c>
+      <c r="C738" t="inlineStr">
+        <is>
+          <t>Etcd</t>
+        </is>
+      </c>
+      <c r="D738" t="inlineStr">
+        <is>
+          <t>KeepAliveOnce key: 8043077/ENGINE/DB/674d208ddb9f7fa171078d40, leaseID: 7587883016994627332</t>
+        </is>
+      </c>
+      <c r="E738" t="inlineStr">
+        <is>
+          <t>etcdregistry.go:367</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="739">
+      <c r="A739" t="inlineStr">
+        <is>
+          <t>2024-12-02 15:17:16.848850</t>
+        </is>
+      </c>
+      <c r="B739" t="inlineStr">
+        <is>
+          <t>debug</t>
+        </is>
+      </c>
+      <c r="C739" t="inlineStr">
+        <is>
+          <t>DBManager</t>
+        </is>
+      </c>
+      <c r="D739" t="inlineStr">
+        <is>
+          <t>UpdateDoc Succeed: MatchedCount = 1, ModifiedCount = 1, UpsertedCount = 0</t>
+        </is>
+      </c>
+      <c r="E739" t="inlineStr">
+        <is>
+          <t>CmdDBUpdateDoc.go:145</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="740">
+      <c r="A740" t="inlineStr">
+        <is>
+          <t>2024-12-02 15:17:22.499493</t>
+        </is>
+      </c>
+      <c r="B740" t="inlineStr">
+        <is>
+          <t>debug</t>
+        </is>
+      </c>
+      <c r="C740" t="inlineStr">
+        <is>
+          <t>Etcd</t>
+        </is>
+      </c>
+      <c r="D740" t="inlineStr">
+        <is>
+          <t>KeepAliveOnce key: 8043077/ENGINE/DB/674d208ddb9f7fa171078d40, leaseID: 7587883016994627332</t>
+        </is>
+      </c>
+      <c r="E740" t="inlineStr">
+        <is>
+          <t>etcdregistry.go:367</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="741">
+      <c r="A741" t="inlineStr">
+        <is>
+          <t>2024-12-02 15:17:46.500541</t>
+        </is>
+      </c>
+      <c r="B741" t="inlineStr">
+        <is>
+          <t>debug</t>
+        </is>
+      </c>
+      <c r="C741" t="inlineStr">
+        <is>
+          <t>Etcd</t>
+        </is>
+      </c>
+      <c r="D741" t="inlineStr">
+        <is>
+          <t>KeepAliveOnce key: 8043077/ENGINE/DB/674d208ddb9f7fa171078d40, leaseID: 7587883016994627332</t>
+        </is>
+      </c>
+      <c r="E741" t="inlineStr">
+        <is>
+          <t>etcdregistry.go:367</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="742">
+      <c r="A742" t="inlineStr">
+        <is>
+          <t>2024-12-02 15:18:10.502511</t>
+        </is>
+      </c>
+      <c r="B742" t="inlineStr">
+        <is>
+          <t>debug</t>
+        </is>
+      </c>
+      <c r="C742" t="inlineStr">
+        <is>
+          <t>Etcd</t>
+        </is>
+      </c>
+      <c r="D742" t="inlineStr">
+        <is>
+          <t>KeepAliveOnce key: 8043077/ENGINE/DB/674d208ddb9f7fa171078d40, leaseID: 7587883016994627332</t>
+        </is>
+      </c>
+      <c r="E742" t="inlineStr">
+        <is>
+          <t>etcdregistry.go:367</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="743">
+      <c r="A743" t="inlineStr">
+        <is>
+          <t>2024-12-02 15:18:34.511259</t>
+        </is>
+      </c>
+      <c r="B743" t="inlineStr">
+        <is>
+          <t>debug</t>
+        </is>
+      </c>
+      <c r="C743" t="inlineStr">
+        <is>
+          <t>Etcd</t>
+        </is>
+      </c>
+      <c r="D743" t="inlineStr">
+        <is>
+          <t>KeepAliveOnce key: 8043077/ENGINE/DB/674d208ddb9f7fa171078d40, leaseID: 7587883016994627332</t>
+        </is>
+      </c>
+      <c r="E743" t="inlineStr">
+        <is>
+          <t>etcdregistry.go:367</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="744">
+      <c r="A744" t="inlineStr">
+        <is>
+          <t>2024-12-02 15:18:58.517764</t>
+        </is>
+      </c>
+      <c r="B744" t="inlineStr">
+        <is>
+          <t>debug</t>
+        </is>
+      </c>
+      <c r="C744" t="inlineStr">
+        <is>
+          <t>Etcd</t>
+        </is>
+      </c>
+      <c r="D744" t="inlineStr">
+        <is>
+          <t>KeepAliveOnce key: 8043077/ENGINE/DB/674d208ddb9f7fa171078d40, leaseID: 7587883016994627332</t>
+        </is>
+      </c>
+      <c r="E744" t="inlineStr">
+        <is>
+          <t>etcdregistry.go:367</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="745">
+      <c r="A745" t="inlineStr">
+        <is>
+          <t>2024-12-02 15:19:22.531012</t>
+        </is>
+      </c>
+      <c r="B745" t="inlineStr">
+        <is>
+          <t>debug</t>
+        </is>
+      </c>
+      <c r="C745" t="inlineStr">
+        <is>
+          <t>Etcd</t>
+        </is>
+      </c>
+      <c r="D745" t="inlineStr">
+        <is>
+          <t>KeepAliveOnce key: 8043077/ENGINE/DB/674d208ddb9f7fa171078d40, leaseID: 7587883016994627332</t>
+        </is>
+      </c>
+      <c r="E745" t="inlineStr">
+        <is>
+          <t>etcdregistry.go:367</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="746">
+      <c r="A746" t="inlineStr">
+        <is>
+          <t>2024-12-02 15:19:46.536094</t>
+        </is>
+      </c>
+      <c r="B746" t="inlineStr">
+        <is>
+          <t>debug</t>
+        </is>
+      </c>
+      <c r="C746" t="inlineStr">
+        <is>
+          <t>Etcd</t>
+        </is>
+      </c>
+      <c r="D746" t="inlineStr">
+        <is>
+          <t>KeepAliveOnce key: 8043077/ENGINE/DB/674d208ddb9f7fa171078d40, leaseID: 7587883016994627332</t>
+        </is>
+      </c>
+      <c r="E746" t="inlineStr">
+        <is>
+          <t>etcdregistry.go:367</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="747">
+      <c r="A747" t="inlineStr">
+        <is>
+          <t>2024-12-02 15:20:10.539121</t>
+        </is>
+      </c>
+      <c r="B747" t="inlineStr">
+        <is>
+          <t>debug</t>
+        </is>
+      </c>
+      <c r="C747" t="inlineStr">
+        <is>
+          <t>Etcd</t>
+        </is>
+      </c>
+      <c r="D747" t="inlineStr">
+        <is>
+          <t>KeepAliveOnce key: 8043077/ENGINE/DB/674d208ddb9f7fa171078d40, leaseID: 7587883016994627332</t>
+        </is>
+      </c>
+      <c r="E747" t="inlineStr">
+        <is>
+          <t>etcdregistry.go:367</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="748">
+      <c r="A748" t="inlineStr">
+        <is>
+          <t>2024-12-02 15:20:34.554360</t>
+        </is>
+      </c>
+      <c r="B748" t="inlineStr">
+        <is>
+          <t>debug</t>
+        </is>
+      </c>
+      <c r="C748" t="inlineStr">
+        <is>
+          <t>Etcd</t>
+        </is>
+      </c>
+      <c r="D748" t="inlineStr">
+        <is>
+          <t>KeepAliveOnce key: 8043077/ENGINE/DB/674d208ddb9f7fa171078d40, leaseID: 7587883016994627332</t>
+        </is>
+      </c>
+      <c r="E748" t="inlineStr">
+        <is>
+          <t>etcdregistry.go:367</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="749">
+      <c r="A749" t="inlineStr">
+        <is>
+          <t>2024-12-02 15:20:58.569589</t>
+        </is>
+      </c>
+      <c r="B749" t="inlineStr">
+        <is>
+          <t>debug</t>
+        </is>
+      </c>
+      <c r="C749" t="inlineStr">
+        <is>
+          <t>Etcd</t>
+        </is>
+      </c>
+      <c r="D749" t="inlineStr">
+        <is>
+          <t>KeepAliveOnce key: 8043077/ENGINE/DB/674d208ddb9f7fa171078d40, leaseID: 7587883016994627332</t>
+        </is>
+      </c>
+      <c r="E749" t="inlineStr">
+        <is>
+          <t>etcdregistry.go:367</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="750">
+      <c r="A750" t="inlineStr">
+        <is>
+          <t>2024-12-02 15:21:22.579906</t>
+        </is>
+      </c>
+      <c r="B750" t="inlineStr">
+        <is>
+          <t>debug</t>
+        </is>
+      </c>
+      <c r="C750" t="inlineStr">
+        <is>
+          <t>Etcd</t>
+        </is>
+      </c>
+      <c r="D750" t="inlineStr">
+        <is>
+          <t>KeepAliveOnce key: 8043077/ENGINE/DB/674d208ddb9f7fa171078d40, leaseID: 7587883016994627332</t>
+        </is>
+      </c>
+      <c r="E750" t="inlineStr">
+        <is>
+          <t>etcdregistry.go:367</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="751">
+      <c r="A751" t="inlineStr">
+        <is>
+          <t>2024-12-02 15:21:46.587013</t>
+        </is>
+      </c>
+      <c r="B751" t="inlineStr">
+        <is>
+          <t>debug</t>
+        </is>
+      </c>
+      <c r="C751" t="inlineStr">
+        <is>
+          <t>Etcd</t>
+        </is>
+      </c>
+      <c r="D751" t="inlineStr">
+        <is>
+          <t>KeepAliveOnce key: 8043077/ENGINE/DB/674d208ddb9f7fa171078d40, leaseID: 7587883016994627332</t>
+        </is>
+      </c>
+      <c r="E751" t="inlineStr">
+        <is>
+          <t>etcdregistry.go:367</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="752">
+      <c r="A752" t="inlineStr">
+        <is>
+          <t>2024-12-02 15:22:10.601052</t>
+        </is>
+      </c>
+      <c r="B752" t="inlineStr">
+        <is>
+          <t>debug</t>
+        </is>
+      </c>
+      <c r="C752" t="inlineStr">
+        <is>
+          <t>Etcd</t>
+        </is>
+      </c>
+      <c r="D752" t="inlineStr">
+        <is>
+          <t>KeepAliveOnce key: 8043077/ENGINE/DB/674d208ddb9f7fa171078d40, leaseID: 7587883016994627332</t>
+        </is>
+      </c>
+      <c r="E752" t="inlineStr">
+        <is>
+          <t>etcdregistry.go:367</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="753">
+      <c r="A753" t="inlineStr">
+        <is>
+          <t>2024-12-02 15:22:16.860436</t>
+        </is>
+      </c>
+      <c r="B753" t="inlineStr">
+        <is>
+          <t>debug</t>
+        </is>
+      </c>
+      <c r="C753" t="inlineStr">
+        <is>
+          <t>DBManager</t>
+        </is>
+      </c>
+      <c r="D753" t="inlineStr">
+        <is>
+          <t>UpdateDoc Succeed: MatchedCount = 1, ModifiedCount = 1, UpsertedCount = 0</t>
+        </is>
+      </c>
+      <c r="E753" t="inlineStr">
+        <is>
+          <t>CmdDBUpdateDoc.go:145</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="754">
+      <c r="A754" t="inlineStr">
+        <is>
+          <t>2024-12-02 15:22:34.614597</t>
+        </is>
+      </c>
+      <c r="B754" t="inlineStr">
+        <is>
+          <t>debug</t>
+        </is>
+      </c>
+      <c r="C754" t="inlineStr">
+        <is>
+          <t>Etcd</t>
+        </is>
+      </c>
+      <c r="D754" t="inlineStr">
+        <is>
+          <t>KeepAliveOnce key: 8043077/ENGINE/DB/674d208ddb9f7fa171078d40, leaseID: 7587883016994627332</t>
+        </is>
+      </c>
+      <c r="E754" t="inlineStr">
+        <is>
+          <t>etcdregistry.go:367</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="755">
+      <c r="A755" t="inlineStr">
+        <is>
+          <t>2024-12-02 15:22:58.621899</t>
+        </is>
+      </c>
+      <c r="B755" t="inlineStr">
+        <is>
+          <t>debug</t>
+        </is>
+      </c>
+      <c r="C755" t="inlineStr">
+        <is>
+          <t>Etcd</t>
+        </is>
+      </c>
+      <c r="D755" t="inlineStr">
+        <is>
+          <t>KeepAliveOnce key: 8043077/ENGINE/DB/674d208ddb9f7fa171078d40, leaseID: 7587883016994627332</t>
+        </is>
+      </c>
+      <c r="E755" t="inlineStr">
+        <is>
+          <t>etcdregistry.go:367</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="756">
+      <c r="A756" t="inlineStr">
+        <is>
+          <t>2024-12-02 15:23:22.623996</t>
+        </is>
+      </c>
+      <c r="B756" t="inlineStr">
+        <is>
+          <t>debug</t>
+        </is>
+      </c>
+      <c r="C756" t="inlineStr">
+        <is>
+          <t>Etcd</t>
+        </is>
+      </c>
+      <c r="D756" t="inlineStr">
+        <is>
+          <t>KeepAliveOnce key: 8043077/ENGINE/DB/674d208ddb9f7fa171078d40, leaseID: 7587883016994627332</t>
+        </is>
+      </c>
+      <c r="E756" t="inlineStr">
+        <is>
+          <t>etcdregistry.go:367</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="757">
+      <c r="A757" t="inlineStr">
+        <is>
+          <t>2024-12-02 15:23:46.637063</t>
+        </is>
+      </c>
+      <c r="B757" t="inlineStr">
+        <is>
+          <t>debug</t>
+        </is>
+      </c>
+      <c r="C757" t="inlineStr">
+        <is>
+          <t>Etcd</t>
+        </is>
+      </c>
+      <c r="D757" t="inlineStr">
+        <is>
+          <t>KeepAliveOnce key: 8043077/ENGINE/DB/674d208ddb9f7fa171078d40, leaseID: 7587883016994627332</t>
+        </is>
+      </c>
+      <c r="E757" t="inlineStr">
+        <is>
+          <t>etcdregistry.go:367</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="758">
+      <c r="A758" t="inlineStr">
+        <is>
+          <t>2024-12-02 15:24:10.650688</t>
+        </is>
+      </c>
+      <c r="B758" t="inlineStr">
+        <is>
+          <t>debug</t>
+        </is>
+      </c>
+      <c r="C758" t="inlineStr">
+        <is>
+          <t>Etcd</t>
+        </is>
+      </c>
+      <c r="D758" t="inlineStr">
+        <is>
+          <t>KeepAliveOnce key: 8043077/ENGINE/DB/674d208ddb9f7fa171078d40, leaseID: 7587883016994627332</t>
+        </is>
+      </c>
+      <c r="E758" t="inlineStr">
+        <is>
+          <t>etcdregistry.go:367</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="759">
+      <c r="A759" t="inlineStr">
+        <is>
+          <t>2024-12-02 15:24:34.653160</t>
+        </is>
+      </c>
+      <c r="B759" t="inlineStr">
+        <is>
+          <t>debug</t>
+        </is>
+      </c>
+      <c r="C759" t="inlineStr">
+        <is>
+          <t>Etcd</t>
+        </is>
+      </c>
+      <c r="D759" t="inlineStr">
+        <is>
+          <t>KeepAliveOnce key: 8043077/ENGINE/DB/674d208ddb9f7fa171078d40, leaseID: 7587883016994627332</t>
+        </is>
+      </c>
+      <c r="E759" t="inlineStr">
+        <is>
+          <t>etcdregistry.go:367</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="760">
+      <c r="A760" t="inlineStr">
+        <is>
+          <t>2024-12-02 15:24:58.660105</t>
+        </is>
+      </c>
+      <c r="B760" t="inlineStr">
+        <is>
+          <t>debug</t>
+        </is>
+      </c>
+      <c r="C760" t="inlineStr">
+        <is>
+          <t>Etcd</t>
+        </is>
+      </c>
+      <c r="D760" t="inlineStr">
+        <is>
+          <t>KeepAliveOnce key: 8043077/ENGINE/DB/674d208ddb9f7fa171078d40, leaseID: 7587883016994627332</t>
+        </is>
+      </c>
+      <c r="E760" t="inlineStr">
+        <is>
+          <t>etcdregistry.go:367</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="761">
+      <c r="A761" t="inlineStr">
+        <is>
+          <t>2024-12-02 15:25:22.664113</t>
+        </is>
+      </c>
+      <c r="B761" t="inlineStr">
+        <is>
+          <t>debug</t>
+        </is>
+      </c>
+      <c r="C761" t="inlineStr">
+        <is>
+          <t>Etcd</t>
+        </is>
+      </c>
+      <c r="D761" t="inlineStr">
+        <is>
+          <t>KeepAliveOnce key: 8043077/ENGINE/DB/674d208ddb9f7fa171078d40, leaseID: 7587883016994627332</t>
+        </is>
+      </c>
+      <c r="E761" t="inlineStr">
+        <is>
+          <t>etcdregistry.go:367</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="762">
+      <c r="A762" t="inlineStr">
+        <is>
+          <t>2024-12-02 15:25:46.677673</t>
+        </is>
+      </c>
+      <c r="B762" t="inlineStr">
+        <is>
+          <t>debug</t>
+        </is>
+      </c>
+      <c r="C762" t="inlineStr">
+        <is>
+          <t>Etcd</t>
+        </is>
+      </c>
+      <c r="D762" t="inlineStr">
+        <is>
+          <t>KeepAliveOnce key: 8043077/ENGINE/DB/674d208ddb9f7fa171078d40, leaseID: 7587883016994627332</t>
+        </is>
+      </c>
+      <c r="E762" t="inlineStr">
+        <is>
+          <t>etcdregistry.go:367</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="763">
+      <c r="A763" t="inlineStr">
+        <is>
+          <t>2024-12-02 15:26:10.680370</t>
+        </is>
+      </c>
+      <c r="B763" t="inlineStr">
+        <is>
+          <t>debug</t>
+        </is>
+      </c>
+      <c r="C763" t="inlineStr">
+        <is>
+          <t>Etcd</t>
+        </is>
+      </c>
+      <c r="D763" t="inlineStr">
+        <is>
+          <t>KeepAliveOnce key: 8043077/ENGINE/DB/674d208ddb9f7fa171078d40, leaseID: 7587883016994627332</t>
+        </is>
+      </c>
+      <c r="E763" t="inlineStr">
+        <is>
+          <t>etcdregistry.go:367</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="764">
+      <c r="A764" t="inlineStr">
+        <is>
+          <t>2024-12-02 15:26:34.686985</t>
+        </is>
+      </c>
+      <c r="B764" t="inlineStr">
+        <is>
+          <t>debug</t>
+        </is>
+      </c>
+      <c r="C764" t="inlineStr">
+        <is>
+          <t>Etcd</t>
+        </is>
+      </c>
+      <c r="D764" t="inlineStr">
+        <is>
+          <t>KeepAliveOnce key: 8043077/ENGINE/DB/674d208ddb9f7fa171078d40, leaseID: 7587883016994627332</t>
+        </is>
+      </c>
+      <c r="E764" t="inlineStr">
+        <is>
+          <t>etcdregistry.go:367</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="765">
+      <c r="A765" t="inlineStr">
+        <is>
+          <t>2024-12-02 15:26:58.691174</t>
+        </is>
+      </c>
+      <c r="B765" t="inlineStr">
+        <is>
+          <t>debug</t>
+        </is>
+      </c>
+      <c r="C765" t="inlineStr">
+        <is>
+          <t>Etcd</t>
+        </is>
+      </c>
+      <c r="D765" t="inlineStr">
+        <is>
+          <t>KeepAliveOnce key: 8043077/ENGINE/DB/674d208ddb9f7fa171078d40, leaseID: 7587883016994627332</t>
+        </is>
+      </c>
+      <c r="E765" t="inlineStr">
+        <is>
+          <t>etcdregistry.go:367</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="766">
+      <c r="A766" t="inlineStr">
+        <is>
+          <t>2024-12-02 15:27:16.899294</t>
+        </is>
+      </c>
+      <c r="B766" t="inlineStr">
+        <is>
+          <t>debug</t>
+        </is>
+      </c>
+      <c r="C766" t="inlineStr">
+        <is>
+          <t>DBManager</t>
+        </is>
+      </c>
+      <c r="D766" t="inlineStr">
+        <is>
+          <t>UpdateDoc Succeed: MatchedCount = 1, ModifiedCount = 1, UpsertedCount = 0</t>
+        </is>
+      </c>
+      <c r="E766" t="inlineStr">
+        <is>
+          <t>CmdDBUpdateDoc.go:145</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="767">
+      <c r="A767" t="inlineStr">
+        <is>
+          <t>2024-12-02 15:27:22.692011</t>
+        </is>
+      </c>
+      <c r="B767" t="inlineStr">
+        <is>
+          <t>debug</t>
+        </is>
+      </c>
+      <c r="C767" t="inlineStr">
+        <is>
+          <t>Etcd</t>
+        </is>
+      </c>
+      <c r="D767" t="inlineStr">
+        <is>
+          <t>KeepAliveOnce key: 8043077/ENGINE/DB/674d208ddb9f7fa171078d40, leaseID: 7587883016994627332</t>
+        </is>
+      </c>
+      <c r="E767" t="inlineStr">
+        <is>
+          <t>etcdregistry.go:367</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="768">
+      <c r="A768" t="inlineStr">
+        <is>
+          <t>2024-12-02 15:27:46.693062</t>
+        </is>
+      </c>
+      <c r="B768" t="inlineStr">
+        <is>
+          <t>debug</t>
+        </is>
+      </c>
+      <c r="C768" t="inlineStr">
+        <is>
+          <t>Etcd</t>
+        </is>
+      </c>
+      <c r="D768" t="inlineStr">
+        <is>
+          <t>KeepAliveOnce key: 8043077/ENGINE/DB/674d208ddb9f7fa171078d40, leaseID: 7587883016994627332</t>
+        </is>
+      </c>
+      <c r="E768" t="inlineStr">
+        <is>
+          <t>etcdregistry.go:367</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="769">
+      <c r="A769" t="inlineStr">
+        <is>
+          <t>2024-12-02 15:28:10.703736</t>
+        </is>
+      </c>
+      <c r="B769" t="inlineStr">
+        <is>
+          <t>debug</t>
+        </is>
+      </c>
+      <c r="C769" t="inlineStr">
+        <is>
+          <t>Etcd</t>
+        </is>
+      </c>
+      <c r="D769" t="inlineStr">
+        <is>
+          <t>KeepAliveOnce key: 8043077/ENGINE/DB/674d208ddb9f7fa171078d40, leaseID: 7587883016994627332</t>
+        </is>
+      </c>
+      <c r="E769" t="inlineStr">
+        <is>
+          <t>etcdregistry.go:367</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="770">
+      <c r="A770" t="inlineStr">
+        <is>
           <t>null</t>
         </is>
       </c>
-      <c r="B638" t="inlineStr">
+      <c r="B770" t="inlineStr">
         <is>
           <t>null</t>
         </is>
       </c>
-      <c r="C638" t="inlineStr">
+      <c r="C770" t="inlineStr">
         <is>
           <t>null</t>
         </is>
       </c>
-      <c r="D638" t="inlineStr">
+      <c r="D770" t="inlineStr">
         <is>
           <t>null</t>
         </is>
       </c>
-      <c r="E638" t="inlineStr">
+      <c r="E770" t="inlineStr">
         <is>
           <t>null</t>
         </is>
